--- a/biology/Zoologie/Argyrogrammana_sticheli/Argyrogrammana_sticheli.xlsx
+++ b/biology/Zoologie/Argyrogrammana_sticheli/Argyrogrammana_sticheli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana sticheli est une espèce de papillons de la famille des Riodinidae et du genre Argyrogrammana.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrogrammana sticheli a été décrite par George Talbot (d) en 1929 sous le protonyme Argyrogramma sticheli[2],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana sticheli a été décrite par George Talbot (d) en 1929 sous le protonyme Argyrogramma sticheli,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana sticheli est un papillon au dessus des ailes de couleur jaune d'or bordé de noir avec dans cette bordure noire trois taches bleues dans l'apex des antérieure et une ligne de tirets du même bleu métallique dans la bordure noire des ailes postérieures.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,12 +617,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Argyrogrammana sticheli est présent uniquement en Guyane[2].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana sticheli est présent uniquement en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argyrogrammana_sticheli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyrogrammana_sticheli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
